--- a/front-end/src/assets/data/reservation00001.xlsx
+++ b/front-end/src/assets/data/reservation00001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\web_2023\hotel-reservation\front-end\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDBB1DF-9B6F-4CDB-96F9-CF0BE90570D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4024D-3E6B-454A-909F-9EEDB1B162F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>30/12/2023</t>
-  </si>
-  <si>
-    <t>khreptun.e@gmail.com</t>
   </si>
   <si>
     <t>khreptunchik@gmail.com</t>
@@ -472,7 +469,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +565,7 @@
         <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -606,7 +603,7 @@
         <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -682,7 +679,7 @@
         <v>205</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -720,7 +717,7 @@
         <v>203</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -755,12 +752,12 @@
     <hyperlink ref="G4" r:id="rId4" xr:uid="{4278EF47-60D0-45D3-B82E-2189CEB68134}"/>
     <hyperlink ref="G3" r:id="rId5" xr:uid="{77742F02-AF3B-44FC-B0DE-C220F7F55613}"/>
     <hyperlink ref="G2" r:id="rId6" xr:uid="{ED6B32EF-552D-466E-9F6D-C05CFAEA4243}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{1DBF4F60-903E-4BB6-94D3-FC99E83A42A6}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{EDFDFD92-9D46-4C35-B7AC-F4A10D1C0FEC}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{9D8BAA8C-ACCD-4DFE-9B3C-AB7A31FDC112}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{268F1ED5-31AF-4E7B-B450-918DE7AF1481}"/>
-    <hyperlink ref="D6" r:id="rId11" xr:uid="{0EC41114-575E-49E4-AC6D-7F359C21792F}"/>
-    <hyperlink ref="D7" r:id="rId12" xr:uid="{2A5BFAE9-2B63-439E-86B0-86ACC7C11F47}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{EDFDFD92-9D46-4C35-B7AC-F4A10D1C0FEC}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{9D8BAA8C-ACCD-4DFE-9B3C-AB7A31FDC112}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{0EC41114-575E-49E4-AC6D-7F359C21792F}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{2A5BFAE9-2B63-439E-86B0-86ACC7C11F47}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{30D24B89-541D-48ED-A07F-CBC4D7869DF3}"/>
+    <hyperlink ref="D2" r:id="rId12" xr:uid="{08A5EB92-620A-4973-A2D9-BB9E47BE445D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/front-end/src/assets/data/reservation00001.xlsx
+++ b/front-end/src/assets/data/reservation00001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\web_2023\hotel-reservation\front-end\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4024D-3E6B-454A-909F-9EEDB1B162F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927262C9-A30B-4E74-BD49-BE81E9482545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>d.chubenko996@gmail.com</t>
+  </si>
+  <si>
+    <t>zhekaprosto7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +568,7 @@
         <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -679,7 +682,7 @@
         <v>205</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -717,7 +720,7 @@
         <v>203</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -754,10 +757,10 @@
     <hyperlink ref="G2" r:id="rId6" xr:uid="{ED6B32EF-552D-466E-9F6D-C05CFAEA4243}"/>
     <hyperlink ref="D3" r:id="rId7" xr:uid="{EDFDFD92-9D46-4C35-B7AC-F4A10D1C0FEC}"/>
     <hyperlink ref="D4" r:id="rId8" xr:uid="{9D8BAA8C-ACCD-4DFE-9B3C-AB7A31FDC112}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{0EC41114-575E-49E4-AC6D-7F359C21792F}"/>
-    <hyperlink ref="D7" r:id="rId10" xr:uid="{2A5BFAE9-2B63-439E-86B0-86ACC7C11F47}"/>
-    <hyperlink ref="D5" r:id="rId11" xr:uid="{30D24B89-541D-48ED-A07F-CBC4D7869DF3}"/>
-    <hyperlink ref="D2" r:id="rId12" xr:uid="{08A5EB92-620A-4973-A2D9-BB9E47BE445D}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{08A5EB92-620A-4973-A2D9-BB9E47BE445D}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{093DB701-8828-4EBB-B99E-6A17FBEBC07C}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{FED30ADD-9CF0-48BC-8F22-16CD4E76D249}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{F5FC2E76-3F60-4A1E-AFEE-EEF763A06CE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/front-end/src/assets/data/reservation00001.xlsx
+++ b/front-end/src/assets/data/reservation00001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\education\web_2023\hotel-reservation\front-end\src\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Khreptun\projects\hotel-reservation\front-end\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927262C9-A30B-4E74-BD49-BE81E9482545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF499540-210F-42C1-8B4F-E76F87D962FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>zhekaprosto7@gmail.com</t>
+  </si>
+  <si>
+    <t>Zkeka</t>
+  </si>
+  <si>
+    <t>Filller</t>
+  </si>
+  <si>
+    <t>zheka@test.ca</t>
   </si>
 </sst>
 </file>
@@ -190,8 +199,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,6 +754,82 @@
       </c>
       <c r="L7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>210</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45058</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>317</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>104</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45211</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -761,6 +846,10 @@
     <hyperlink ref="D5" r:id="rId10" xr:uid="{093DB701-8828-4EBB-B99E-6A17FBEBC07C}"/>
     <hyperlink ref="D7" r:id="rId11" xr:uid="{FED30ADD-9CF0-48BC-8F22-16CD4E76D249}"/>
     <hyperlink ref="D6" r:id="rId12" xr:uid="{F5FC2E76-3F60-4A1E-AFEE-EEF763A06CE6}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{7E88E48A-81BF-477B-9C3A-914B679F4881}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{7DD9C50E-AB29-4766-AA5A-D936CCC0D176}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{8392CBC6-DCD8-44D3-A93A-10EF844EBC45}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{A005D9CB-0DBD-42DB-979A-B0CF3ADB20B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
